--- a/results/CIFAR100/simplecnn/noise_0.05/SR-Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR100/simplecnn/noise_0.05/SR-Adam/runs_and_aggregate.xlsx
@@ -487,7 +487,7 @@
         <v>13.06</v>
       </c>
       <c r="F2" t="n">
-        <v>36.00359129905701</v>
+        <v>30.32963275909424</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>20.97</v>
       </c>
       <c r="F3" t="n">
-        <v>34.70069527626038</v>
+        <v>29.87662672996521</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>25.37</v>
       </c>
       <c r="F4" t="n">
-        <v>34.28069138526917</v>
+        <v>30.04151892662048</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>28.55</v>
       </c>
       <c r="F5" t="n">
-        <v>34.32032561302185</v>
+        <v>29.95346665382385</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>31.41</v>
       </c>
       <c r="F6" t="n">
-        <v>35.65524172782898</v>
+        <v>29.8919312953949</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>32.86</v>
       </c>
       <c r="F7" t="n">
-        <v>36.57909083366394</v>
+        <v>29.99257564544678</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>34.85</v>
       </c>
       <c r="F8" t="n">
-        <v>35.66464042663574</v>
+        <v>29.8600332736969</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>35.94</v>
       </c>
       <c r="F9" t="n">
-        <v>35.06200218200684</v>
+        <v>29.96042943000793</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>37.46</v>
       </c>
       <c r="F10" t="n">
-        <v>34.95104455947876</v>
+        <v>29.90268731117249</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>37.61</v>
       </c>
       <c r="F11" t="n">
-        <v>36.22845149040222</v>
+        <v>30.15790510177612</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>38.88</v>
       </c>
       <c r="F12" t="n">
-        <v>35.79037404060364</v>
+        <v>29.94881272315979</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>39.16</v>
       </c>
       <c r="F13" t="n">
-        <v>35.35793113708496</v>
+        <v>29.84983134269714</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>39.87</v>
       </c>
       <c r="F14" t="n">
-        <v>34.9878876209259</v>
+        <v>29.84732055664062</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>39.94</v>
       </c>
       <c r="F15" t="n">
-        <v>35.22094655036926</v>
+        <v>29.85854697227478</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>40.61</v>
       </c>
       <c r="F16" t="n">
-        <v>35.12955570220947</v>
+        <v>29.84684300422668</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>41.22</v>
       </c>
       <c r="F17" t="n">
-        <v>35.35217356681824</v>
+        <v>29.90271091461182</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>41.34</v>
       </c>
       <c r="F18" t="n">
-        <v>35.33060789108276</v>
+        <v>29.78974080085754</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>41.46</v>
       </c>
       <c r="F19" t="n">
-        <v>35.06911444664001</v>
+        <v>29.87248206138611</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>41.2</v>
       </c>
       <c r="F20" t="n">
-        <v>35.15263962745667</v>
+        <v>29.97604894638061</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>42.5</v>
       </c>
       <c r="F21" t="n">
-        <v>35.89170575141907</v>
+        <v>30.10194325447083</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>12.87</v>
       </c>
       <c r="F2" t="n">
-        <v>35.26956272125244</v>
+        <v>30.09138011932373</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>35.28667306900024</v>
+        <v>30.02620077133179</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>22.7</v>
       </c>
       <c r="F4" t="n">
-        <v>35.37244176864624</v>
+        <v>29.78105735778809</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>26.05</v>
       </c>
       <c r="F5" t="n">
-        <v>37.17260432243347</v>
+        <v>29.9242033958435</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>28.46</v>
       </c>
       <c r="F6" t="n">
-        <v>36.77706241607666</v>
+        <v>29.88250732421875</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>30.02</v>
       </c>
       <c r="F7" t="n">
-        <v>35.91636776924133</v>
+        <v>30.01092576980591</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>32.57</v>
       </c>
       <c r="F8" t="n">
-        <v>35.88477277755737</v>
+        <v>29.96712827682495</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>33.48</v>
       </c>
       <c r="F9" t="n">
-        <v>35.81094026565552</v>
+        <v>29.9167549610138</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>34.12</v>
       </c>
       <c r="F10" t="n">
-        <v>35.80422687530518</v>
+        <v>29.87134194374084</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>34.93</v>
       </c>
       <c r="F11" t="n">
-        <v>36.75324559211731</v>
+        <v>30.20308613777161</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>35.94</v>
       </c>
       <c r="F12" t="n">
-        <v>36.16535615921021</v>
+        <v>29.82512235641479</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>36.98</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48382091522217</v>
+        <v>29.88949131965637</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>37.15</v>
       </c>
       <c r="F14" t="n">
-        <v>36.29316353797913</v>
+        <v>29.84434723854065</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>37.5</v>
       </c>
       <c r="F15" t="n">
-        <v>36.15205049514771</v>
+        <v>29.95283985137939</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>37.5</v>
       </c>
       <c r="F16" t="n">
-        <v>36.23712754249573</v>
+        <v>29.81967234611511</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>38.93</v>
       </c>
       <c r="F17" t="n">
-        <v>36.08785343170166</v>
+        <v>29.9378604888916</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>39.54</v>
       </c>
       <c r="F18" t="n">
-        <v>36.30763578414917</v>
+        <v>29.86930465698243</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>39.74</v>
       </c>
       <c r="F19" t="n">
-        <v>36.40142011642456</v>
+        <v>29.85979056358337</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>40.03</v>
       </c>
       <c r="F20" t="n">
-        <v>35.57638716697693</v>
+        <v>29.8306450843811</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>40.07</v>
       </c>
       <c r="F21" t="n">
-        <v>35.97496461868286</v>
+        <v>30.18504309654236</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>13.76</v>
       </c>
       <c r="F2" t="n">
-        <v>36.29590368270874</v>
+        <v>30.11069369316101</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>20.42</v>
       </c>
       <c r="F3" t="n">
-        <v>37.38684010505676</v>
+        <v>29.97803521156311</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>25.18</v>
       </c>
       <c r="F4" t="n">
-        <v>37.30245995521545</v>
+        <v>29.77809429168701</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>28.53</v>
       </c>
       <c r="F5" t="n">
-        <v>36.28752732276917</v>
+        <v>29.88665294647217</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>30.19</v>
       </c>
       <c r="F6" t="n">
-        <v>35.91520190238953</v>
+        <v>29.91417837142944</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>32.21</v>
       </c>
       <c r="F7" t="n">
-        <v>36.17623472213745</v>
+        <v>30.06914973258972</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>34.37</v>
       </c>
       <c r="F8" t="n">
-        <v>36.3524980545044</v>
+        <v>29.80396938323974</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>35.64</v>
       </c>
       <c r="F9" t="n">
-        <v>36.22442531585693</v>
+        <v>29.90506839752197</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>36.56</v>
       </c>
       <c r="F10" t="n">
-        <v>36.06648874282837</v>
+        <v>29.93886971473694</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>37.44</v>
       </c>
       <c r="F11" t="n">
-        <v>36.69834566116333</v>
+        <v>30.18298029899597</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>37.98</v>
       </c>
       <c r="F12" t="n">
-        <v>36.21127772331238</v>
+        <v>29.83091020584106</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>38.92</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27197003364563</v>
+        <v>29.9476249217987</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>39.22</v>
       </c>
       <c r="F14" t="n">
-        <v>35.94986605644226</v>
+        <v>29.84555625915528</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>39.41</v>
       </c>
       <c r="F15" t="n">
-        <v>36.29316520690918</v>
+        <v>29.93301701545716</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>39.94</v>
       </c>
       <c r="F16" t="n">
-        <v>35.92320609092712</v>
+        <v>29.86205339431763</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>40.71</v>
       </c>
       <c r="F17" t="n">
-        <v>36.16024160385132</v>
+        <v>29.85874438285828</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>40.49</v>
       </c>
       <c r="F18" t="n">
-        <v>35.56628942489624</v>
+        <v>29.92232370376587</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>40.99</v>
       </c>
       <c r="F19" t="n">
-        <v>35.41441893577576</v>
+        <v>29.91538381576538</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>40.82</v>
       </c>
       <c r="F20" t="n">
-        <v>38.77677845954895</v>
+        <v>29.83722257614136</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>40.98</v>
       </c>
       <c r="F21" t="n">
-        <v>36.60408902168274</v>
+        <v>30.12977623939514</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>13.52</v>
       </c>
       <c r="F2" t="n">
-        <v>37.86340546607971</v>
+        <v>30.14881658554077</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>19.95</v>
       </c>
       <c r="F3" t="n">
-        <v>35.42798209190369</v>
+        <v>29.90719413757324</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>24.06</v>
       </c>
       <c r="F4" t="n">
-        <v>36.16801643371582</v>
+        <v>29.84030437469482</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>27.76</v>
       </c>
       <c r="F5" t="n">
-        <v>38.38627290725708</v>
+        <v>30.01970434188843</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>29.06</v>
       </c>
       <c r="F6" t="n">
-        <v>36.92460942268372</v>
+        <v>29.85960102081299</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>31.36</v>
       </c>
       <c r="F7" t="n">
-        <v>35.83301281929016</v>
+        <v>29.99923586845398</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>33.14</v>
       </c>
       <c r="F8" t="n">
-        <v>35.7874436378479</v>
+        <v>29.84604287147522</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>33.24</v>
       </c>
       <c r="F9" t="n">
-        <v>35.96255421638489</v>
+        <v>29.9532253742218</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>34.81</v>
       </c>
       <c r="F10" t="n">
-        <v>36.16248846054077</v>
+        <v>29.86678409576416</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>36.43</v>
       </c>
       <c r="F11" t="n">
-        <v>39.69359135627747</v>
+        <v>30.1832709312439</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>36.92</v>
       </c>
       <c r="F12" t="n">
-        <v>39.07978367805481</v>
+        <v>29.86647367477417</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>37.49</v>
       </c>
       <c r="F13" t="n">
-        <v>38.84128952026367</v>
+        <v>29.98110914230347</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>37.88</v>
       </c>
       <c r="F14" t="n">
-        <v>39.40233278274536</v>
+        <v>29.82787919044494</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>38.75</v>
       </c>
       <c r="F15" t="n">
-        <v>39.00796294212341</v>
+        <v>29.91382050514221</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>38.88</v>
       </c>
       <c r="F16" t="n">
-        <v>38.99352335929871</v>
+        <v>29.86367154121399</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>38.9</v>
       </c>
       <c r="F17" t="n">
-        <v>37.58413934707642</v>
+        <v>29.97975444793701</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>39.84</v>
       </c>
       <c r="F18" t="n">
-        <v>36.17736029624939</v>
+        <v>29.81351137161255</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>40.26</v>
       </c>
       <c r="F19" t="n">
-        <v>36.22781443595886</v>
+        <v>29.92861342430115</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>40.46</v>
       </c>
       <c r="F20" t="n">
-        <v>35.80976963043213</v>
+        <v>30.05117678642273</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>40.65</v>
       </c>
       <c r="F21" t="n">
-        <v>37.21547341346741</v>
+        <v>30.09660768508911</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>13.44</v>
       </c>
       <c r="F2" t="n">
-        <v>40.11374115943909</v>
+        <v>30.05398321151733</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>21.13</v>
       </c>
       <c r="F3" t="n">
-        <v>39.59980344772339</v>
+        <v>29.93790721893311</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>25.49</v>
       </c>
       <c r="F4" t="n">
-        <v>39.02540564537048</v>
+        <v>29.76625204086304</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>28.53</v>
       </c>
       <c r="F5" t="n">
-        <v>37.82873344421387</v>
+        <v>29.84038472175598</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>31.11</v>
       </c>
       <c r="F6" t="n">
-        <v>37.14546465873718</v>
+        <v>29.87114834785461</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>33.86</v>
       </c>
       <c r="F7" t="n">
-        <v>36.78168916702271</v>
+        <v>30.12606835365296</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>35.52</v>
       </c>
       <c r="F8" t="n">
-        <v>37.14309191703797</v>
+        <v>30.06899333000183</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>37.43</v>
       </c>
       <c r="F9" t="n">
-        <v>36.86230659484863</v>
+        <v>30.03279876708984</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>37.48</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91055369377136</v>
+        <v>29.90515494346619</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>38.77</v>
       </c>
       <c r="F11" t="n">
-        <v>37.8872127532959</v>
+        <v>30.23918104171753</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>38.57</v>
       </c>
       <c r="F12" t="n">
-        <v>37.30359578132629</v>
+        <v>29.83828186988831</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>39.65</v>
       </c>
       <c r="F13" t="n">
-        <v>37.09196734428406</v>
+        <v>29.93893051147461</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>41.57</v>
       </c>
       <c r="F14" t="n">
-        <v>36.43898344039917</v>
+        <v>29.87483358383179</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>41.16</v>
       </c>
       <c r="F15" t="n">
-        <v>35.64872574806213</v>
+        <v>30.01310229301453</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>41.43</v>
       </c>
       <c r="F16" t="n">
-        <v>35.66817450523376</v>
+        <v>29.8501181602478</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>42.15</v>
       </c>
       <c r="F17" t="n">
-        <v>35.9660496711731</v>
+        <v>29.94263219833374</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>42.84</v>
       </c>
       <c r="F18" t="n">
-        <v>39.10806703567505</v>
+        <v>29.89961314201355</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>42.98</v>
       </c>
       <c r="F19" t="n">
-        <v>39.11178278923035</v>
+        <v>29.87050485610962</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>43.02</v>
       </c>
       <c r="F20" t="n">
-        <v>36.81479239463806</v>
+        <v>29.82127785682678</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>43.29</v>
       </c>
       <c r="F21" t="n">
-        <v>37.54119229316712</v>
+        <v>30.24242830276489</v>
       </c>
     </row>
   </sheetData>
